--- a/artfynd/A 43624-2018.xlsx
+++ b/artfynd/A 43624-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73469699</v>
+        <v>73628443</v>
       </c>
       <c r="B2" t="n">
-        <v>89170</v>
+        <v>90665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>556085.9585446554</v>
+        <v>556124.0641905284</v>
       </c>
       <c r="R2" t="n">
-        <v>6664742.03884617</v>
+        <v>6664862.769563208</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-10-02</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-10-02</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -785,17 +794,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73469696</v>
+        <v>73469699</v>
       </c>
       <c r="B3" t="n">
-        <v>90008</v>
+        <v>89170</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,43 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6031</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>556171.192173962</v>
+        <v>556085.9585446554</v>
       </c>
       <c r="R3" t="n">
-        <v>6664785.219463159</v>
+        <v>6664742.03884617</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73469700</v>
+        <v>73469696</v>
       </c>
       <c r="B4" t="n">
-        <v>90645</v>
+        <v>90008</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>6031</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>556085.9585446554</v>
+        <v>556171.192173962</v>
       </c>
       <c r="R4" t="n">
-        <v>6664742.03884617</v>
+        <v>6664785.219463159</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73469692</v>
+        <v>73469700</v>
       </c>
       <c r="B5" t="n">
-        <v>90665</v>
+        <v>90645</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,25 +1046,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1072,16 +1072,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555986.06257353</v>
+        <v>556085.9585446554</v>
       </c>
       <c r="R5" t="n">
-        <v>6664808.815289573</v>
+        <v>6664742.03884617</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73469681</v>
+        <v>73469692</v>
       </c>
       <c r="B6" t="n">
-        <v>90671</v>
+        <v>90665</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,25 +1167,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1188,21 +1193,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555993.2239594045</v>
+        <v>555986.06257353</v>
       </c>
       <c r="R6" t="n">
-        <v>6664732.148454694</v>
+        <v>6664808.815289573</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73469686</v>
+        <v>73469681</v>
       </c>
       <c r="B7" t="n">
-        <v>103265</v>
+        <v>90671</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,31 +1283,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>4368</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1316,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555578.2393848968</v>
+        <v>555993.2239594045</v>
       </c>
       <c r="R7" t="n">
-        <v>6664698.923133198</v>
+        <v>6664732.148454694</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73469683</v>
+        <v>73469686</v>
       </c>
       <c r="B8" t="n">
-        <v>94121</v>
+        <v>103265</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,38 +1404,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555972.7712295325</v>
+        <v>555578.2393848968</v>
       </c>
       <c r="R8" t="n">
-        <v>6664697.935079473</v>
+        <v>6664698.923133198</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73469685</v>
+        <v>73469683</v>
       </c>
       <c r="B9" t="n">
-        <v>103265</v>
+        <v>94121</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,43 +1521,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555772.9561257223</v>
+        <v>555972.7712295325</v>
       </c>
       <c r="R9" t="n">
-        <v>6664668.970280989</v>
+        <v>6664697.935079473</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73469694</v>
+        <v>73469685</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>103265</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1629,35 +1633,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mycel</t>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>556089.8366219404</v>
+        <v>555772.9561257223</v>
       </c>
       <c r="R10" t="n">
-        <v>6664847.789130096</v>
+        <v>6664668.970280989</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73469703</v>
+        <v>73469694</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>556151.1261185352</v>
+        <v>556089.8366219404</v>
       </c>
       <c r="R11" t="n">
-        <v>6664693.179299683</v>
+        <v>6664847.789130096</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73469688</v>
+        <v>73469703</v>
       </c>
       <c r="B12" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,38 +1871,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555476.1431185424</v>
+        <v>556151.1261185352</v>
       </c>
       <c r="R12" t="n">
-        <v>6664349.871716912</v>
+        <v>6664693.179299683</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1971,10 +1980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73469702</v>
+        <v>73469688</v>
       </c>
       <c r="B13" t="n">
-        <v>90671</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1983,47 +1992,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4368</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>556125.2407155134</v>
+        <v>555476.1431185424</v>
       </c>
       <c r="R13" t="n">
-        <v>6664753.108494076</v>
+        <v>6664349.871716912</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73628441</v>
+        <v>73469702</v>
       </c>
       <c r="B14" t="n">
-        <v>90696</v>
+        <v>90671</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2108,21 +2108,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5448</v>
+        <v>4368</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2137,14 +2137,14 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Rallvaråsen, Kallmora, Vstm</t>
+          <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555669.8713961896</v>
+        <v>556125.2407155134</v>
       </c>
       <c r="R14" t="n">
-        <v>6664715.766085356</v>
+        <v>6664753.108494076</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2018-10-02</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2018-10-02</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2206,17 +2206,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73625715</v>
+        <v>73628441</v>
       </c>
       <c r="B15" t="n">
-        <v>90665</v>
+        <v>90696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2225,43 +2225,50 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Stora Öfstjärnen, Vstm</t>
+          <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555906.6440642555</v>
+        <v>555669.8713961896</v>
       </c>
       <c r="R15" t="n">
-        <v>6664777.194354862</v>
+        <v>6664715.766085356</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2309,7 +2316,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73628443</v>
+        <v>73625715</v>
       </c>
       <c r="B16" t="n">
         <v>90665</v>
@@ -2361,29 +2367,22 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>556124.0641905284</v>
+        <v>555906.6440642555</v>
       </c>
       <c r="R16" t="n">
-        <v>6664862.769563208</v>
+        <v>6664777.194354862</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2431,6 +2430,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 43624-2018.xlsx
+++ b/artfynd/A 43624-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73628443</v>
+        <v>73469699</v>
       </c>
       <c r="B2" t="n">
-        <v>90665</v>
+        <v>89170</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,43 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>556124.0641905284</v>
+        <v>556085.9585446554</v>
       </c>
       <c r="R2" t="n">
-        <v>6664862.769563208</v>
+        <v>6664742.03884617</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2018-10-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2018-10-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -794,17 +785,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73469699</v>
+        <v>73469696</v>
       </c>
       <c r="B3" t="n">
-        <v>89170</v>
+        <v>90008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +808,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>6031</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>556085.9585446554</v>
+        <v>556171.192173962</v>
       </c>
       <c r="R3" t="n">
-        <v>6664742.03884617</v>
+        <v>6664785.219463159</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73469696</v>
+        <v>73469700</v>
       </c>
       <c r="B4" t="n">
-        <v>90008</v>
+        <v>90645</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6031</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>556171.192173962</v>
+        <v>556085.9585446554</v>
       </c>
       <c r="R4" t="n">
-        <v>6664785.219463159</v>
+        <v>6664742.03884617</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73469700</v>
+        <v>73469692</v>
       </c>
       <c r="B5" t="n">
-        <v>90645</v>
+        <v>90665</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,25 +1046,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1072,21 +1072,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>556085.9585446554</v>
+        <v>555986.06257353</v>
       </c>
       <c r="R5" t="n">
-        <v>6664742.03884617</v>
+        <v>6664808.815289573</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1155,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73469692</v>
+        <v>73469681</v>
       </c>
       <c r="B6" t="n">
-        <v>90665</v>
+        <v>90671</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,25 +1162,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1193,16 +1188,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555986.06257353</v>
+        <v>555993.2239594045</v>
       </c>
       <c r="R6" t="n">
-        <v>6664808.815289573</v>
+        <v>6664732.148454694</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73469681</v>
+        <v>73469686</v>
       </c>
       <c r="B7" t="n">
-        <v>90671</v>
+        <v>103265</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,35 +1283,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4368</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>mycel</t>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1320,10 +1316,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555993.2239594045</v>
+        <v>555578.2393848968</v>
       </c>
       <c r="R7" t="n">
-        <v>6664732.148454694</v>
+        <v>6664698.923133198</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73469686</v>
+        <v>73469683</v>
       </c>
       <c r="B8" t="n">
-        <v>103265</v>
+        <v>94121</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,43 +1400,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555578.2393848968</v>
+        <v>555972.7712295325</v>
       </c>
       <c r="R8" t="n">
-        <v>6664698.923133198</v>
+        <v>6664697.935079473</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1509,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73469683</v>
+        <v>73469685</v>
       </c>
       <c r="B9" t="n">
-        <v>94121</v>
+        <v>103265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,38 +1512,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555972.7712295325</v>
+        <v>555772.9561257223</v>
       </c>
       <c r="R9" t="n">
-        <v>6664697.935079473</v>
+        <v>6664668.970280989</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1621,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73469685</v>
+        <v>73469694</v>
       </c>
       <c r="B10" t="n">
-        <v>103265</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,31 +1629,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555772.9561257223</v>
+        <v>556089.8366219404</v>
       </c>
       <c r="R10" t="n">
-        <v>6664668.970280989</v>
+        <v>6664847.789130096</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73469694</v>
+        <v>73469703</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>556089.8366219404</v>
+        <v>556151.1261185352</v>
       </c>
       <c r="R11" t="n">
-        <v>6664847.789130096</v>
+        <v>6664693.179299683</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73469703</v>
+        <v>73469688</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,47 +1871,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>556151.1261185352</v>
+        <v>555476.1431185424</v>
       </c>
       <c r="R12" t="n">
-        <v>6664693.179299683</v>
+        <v>6664349.871716912</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1980,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73469688</v>
+        <v>73469702</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>90671</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1992,38 +1983,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>4368</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555476.1431185424</v>
+        <v>556125.2407155134</v>
       </c>
       <c r="R13" t="n">
-        <v>6664349.871716912</v>
+        <v>6664753.108494076</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73469702</v>
+        <v>73628441</v>
       </c>
       <c r="B14" t="n">
-        <v>90671</v>
+        <v>90696</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2108,21 +2108,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4368</v>
+        <v>5448</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2137,14 +2137,14 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Stora Öfstjärnen, Vstm</t>
+          <t>Rallvaråsen, Kallmora, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>556125.2407155134</v>
+        <v>555669.8713961896</v>
       </c>
       <c r="R14" t="n">
-        <v>6664753.108494076</v>
+        <v>6664715.766085356</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2018-10-02</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2018-10-02</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2206,17 +2206,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73628441</v>
+        <v>73625715</v>
       </c>
       <c r="B15" t="n">
-        <v>90696</v>
+        <v>90665</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2225,50 +2225,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rallvaråsen, Kallmora, Vstm</t>
+          <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555669.8713961896</v>
+        <v>555906.6440642555</v>
       </c>
       <c r="R15" t="n">
-        <v>6664715.766085356</v>
+        <v>6664777.194354862</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2316,6 +2309,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2334,7 +2328,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73625715</v>
+        <v>73628443</v>
       </c>
       <c r="B16" t="n">
         <v>90665</v>
@@ -2367,22 +2361,29 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Stora Öfstjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555906.6440642555</v>
+        <v>556124.0641905284</v>
       </c>
       <c r="R16" t="n">
-        <v>6664777.194354862</v>
+        <v>6664862.769563208</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2430,7 +2431,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
